--- a/src/test/resources/loginDataCapStone.xlsx
+++ b/src/test/resources/loginDataCapStone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai_lieu_tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC07994-CEA4-4967-9234-59BD135EA876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC22E663-8D12-41E9-8FF2-EDD6479E577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FCFEDF75-5A57-4CFD-93DC-927DDD36212C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>email</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>quanghuy424@gmail</t>
+  </si>
+  <si>
+    <t>abc2222</t>
+  </si>
+  <si>
+    <t>quanghuy@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24ED0D2-072D-412D-8256-4FEE92DDE5F4}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,9 +489,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>123</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,54 +507,30 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>123</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D0212DD6-8E5F-4D77-84D1-43A7801578AB}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{CAFEF14B-6A0C-46FC-9C24-C87EFAC49E1F}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{02864754-B1DF-44AF-8DD3-B43B6F2A2336}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{CAFEF14B-6A0C-46FC-9C24-C87EFAC49E1F}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{AC01B600-A133-4F24-AEC3-BEB002297F1C}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{25698841-6BB2-49D4-85B4-477404CAECA6}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{D0212DD6-8E5F-4D77-84D1-43A7801578AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
